--- a/088 VS第三方SDK项目配置(FFmpeg).xlsx
+++ b/088 VS第三方SDK项目配置(FFmpeg).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\myBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D2EF1-8809-4403-9208-29A741AD8F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09B6BB5-E73F-467B-BF03-9C3713EE1EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>088 VS第三方SDK项目配置</t>
   </si>
@@ -36,9 +36,6 @@
   <si>
     <t>2、VS win32所有配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#pragma comment(lib,"avformat.lib")</t>
   </si>
   <si>
     <t>main.c</t>
@@ -350,103 +347,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>97665</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F0A358-25EE-A5B0-DFAF-7A64902D8662}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="17861281"/>
-          <a:ext cx="6193665" cy="3032760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4F66A3-4C4C-88B2-B41F-33FD96D35008}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4777740" y="19088100"/>
-          <a:ext cx="2446020" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -787,6 +687,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>19137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B00F0F-C03B-98D4-1B94-270AC121F07F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17861280"/>
+          <a:ext cx="5440680" cy="2998557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1057,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1079,13 +1023,11 @@
       </c>
     </row>
     <row r="108" spans="13:13">
-      <c r="M108" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="M108" s="2"/>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
